--- a/data/ch06/XlsxWriter_start_02.xlsx
+++ b/data/ch06/XlsxWriter_start_02.xlsx
@@ -19,10 +19,10 @@
     <t>안녕</t>
   </si>
   <si>
-    <t>← 숫자 (정수) 입력</t>
-  </si>
-  <si>
-    <t>← 숫자 (실수) 입력</t>
+    <t>← 숫자(정수) 입력</t>
+  </si>
+  <si>
+    <t>← 숫자(실수) 입력</t>
   </si>
   <si>
     <t>← 문자열 입력</t>
@@ -31,7 +31,7 @@
     <t>← 엑셀 함수 계산 결과</t>
   </si>
   <si>
-    <t>← 빈문자로 공백 입력</t>
+    <t>← 빈 문자로 공백 입력</t>
   </si>
   <si>
     <t>← None으로 공백 입력</t>
